--- a/04_Diagrama de Proyecto Burndown/D2_Ex Proyecto Burndown.xlsx
+++ b/04_Diagrama de Proyecto Burndown/D2_Ex Proyecto Burndown.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Project Burndown Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -28,13 +27,13 @@
     <t>Tendencia</t>
   </si>
   <si>
-    <t>Iteración</t>
-  </si>
-  <si>
     <t>Velocidad</t>
   </si>
   <si>
     <t>Trabajo - Items Puntos Restantes</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -96,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -147,6 +146,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -159,16 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +198,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,11 +476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502926448"/>
-        <c:axId val="502912848"/>
+        <c:axId val="-704467168"/>
+        <c:axId val="-704464992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502926448"/>
+        <c:axId val="-704467168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +578,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502912848"/>
+        <c:crossAx val="-704464992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502912848"/>
+        <c:axId val="-704464992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +693,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502926448"/>
+        <c:crossAx val="-704467168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1830,51 +1855,49 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="7">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="H10" s="5">
         <v>6</v>
       </c>
-      <c r="J10" s="8">
+      <c r="I10" s="5">
         <v>7</v>
       </c>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>4</v>
+      <c r="B11" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>70</v>
@@ -1897,41 +1920,41 @@
       <c r="I11" s="4">
         <v>25</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f>I11-J12</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>3</v>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <f t="shared" ref="D12:I12" si="0">C11-D11</f>
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <f>AVERAGE(D12:I12)</f>
         <v>7.5</v>
       </c>
@@ -1940,8 +1963,9 @@
       <c r="B13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
